--- a/assets/DEVIS.xlsx
+++ b/assets/DEVIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gibou/code/github/diag_devis/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7546B0-5D08-EE41-BF5D-399C8ED530CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531F6CBC-38D0-4742-90A9-24492782B274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="680" windowWidth="20500" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">Pour Maison R+2 (Avec sous-sol) et terrasse et jardin. </t>
-  </si>
-  <si>
     <t>TOTAL HT</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Prélévements Amiante (Si nécessaire: Prix unitaire 90,00 € HT)</t>
+  </si>
+  <si>
+    <t>Pour le bien sis</t>
   </si>
 </sst>
 </file>
@@ -823,6 +823,72 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -861,72 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1285,7 +1285,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B25" sqref="B25:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1300,10 +1300,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1328,11 +1328,11 @@
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -1341,11 +1341,11 @@
       <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="110"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
@@ -1353,11 +1353,11 @@
       <c r="C10" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
@@ -1430,111 +1430,111 @@
       <c r="A20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92" t="s">
+      <c r="C20" s="112"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="93"/>
+      <c r="F20" s="115"/>
     </row>
     <row r="21" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="100">
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="96">
         <f>E37</f>
         <v>416.66666666666669</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="98" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="103"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="99"/>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="47"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
     </row>
     <row r="24" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
-      <c r="B25" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
+      <c r="B25" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="49"/>
       <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="115"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
-      <c r="B27" s="113" t="s">
+      <c r="B27" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="115"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="49"/>
       <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="115"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
       <c r="E28" s="52"/>
       <c r="F28" s="50"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
-      <c r="B29" s="113" t="s">
+      <c r="B29" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="115"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
       <c r="E29" s="49"/>
       <c r="F29" s="43"/>
     </row>
     <row r="30" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="56"/>
@@ -1543,9 +1543,9 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
-      <c r="B31" s="107"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="109"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="49"/>
       <c r="F31" s="43"/>
     </row>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="37" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" s="69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" s="70">
         <f>E39/1.2</f>
@@ -1604,7 +1604,7 @@
     <row r="38" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="71"/>
       <c r="D38" s="69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="72">
         <f>E39-E37</f>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="39" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="74">
         <v>500</v>
@@ -1661,12 +1661,12 @@
       <c r="B51" s="79"/>
       <c r="C51" s="79"/>
       <c r="D51" s="80" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1674,23 +1674,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
